--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Martyn/Thomas_Martyn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Martyn/Thomas_Martyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Martyn est un naturaliste britannique, né le 23 septembre 1735 et mort le 3 juin 1825.
 Il succède à son père, John Martyn (1699-1768), à la chaire de botanique de l'université de Cambridge. Il devient membre de la Royal Society en 1786.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plantæ Cantabrigienses, or a catalogue of the plants which grow wild in the County of Cambridge, disposed according to the system of Linnæus. Herbationes Cantabrigienses, or directions to the places where they may be found, comprehended in 13 botanical excursions. To which are added, lists of the more rare plants growing in many parts of England and Wales (Londres, 1763).
 Martyn signe le texte, Frederick Polydore Nodder (v. 1770-v. 1800), les planches de Thirty-eight plates with explanations; intended to illustrate Linnæus’s system of Vegetables and adapted to the Letters by J. J. Rousseau, on the Elements of botany (Longman, Hurst, Rees, Orme, &amp; Browne, etc., Londres, 1794, réédité en 1817).
